--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>1.440612155013243</v>
+        <v>2.40329439774</v>
       </c>
       <c r="R2">
-        <v>1.440612155013243</v>
+        <v>21.62964957966</v>
       </c>
       <c r="S2">
-        <v>0.003813522741432041</v>
+        <v>0.005281948931237525</v>
       </c>
       <c r="T2">
-        <v>0.003813522741432041</v>
+        <v>0.006400989611713154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>8.989715737016398</v>
+        <v>10.83045988206</v>
       </c>
       <c r="R3">
-        <v>8.989715737016398</v>
+        <v>97.47413893854001</v>
       </c>
       <c r="S3">
-        <v>0.02379716517233356</v>
+        <v>0.02380313292148178</v>
       </c>
       <c r="T3">
-        <v>0.02379716517233356</v>
+        <v>0.02884609611720242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>1.078272991626581</v>
+        <v>1.33884626544</v>
       </c>
       <c r="R4">
-        <v>1.078272991626581</v>
+        <v>12.04961638896</v>
       </c>
       <c r="S4">
-        <v>0.002854355046728122</v>
+        <v>0.002942509917837047</v>
       </c>
       <c r="T4">
-        <v>0.002854355046728122</v>
+        <v>0.003565913957449973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>1.519067978422088</v>
+        <v>2.42998798932</v>
       </c>
       <c r="R5">
-        <v>1.519067978422088</v>
+        <v>21.86989190388</v>
       </c>
       <c r="S5">
-        <v>0.004021207416121362</v>
+        <v>0.005340615979123736</v>
       </c>
       <c r="T5">
-        <v>0.004021207416121362</v>
+        <v>0.00647208593789091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>7.381221383881361</v>
+        <v>9.177301365659998</v>
       </c>
       <c r="R6">
-        <v>7.381221383881361</v>
+        <v>55.06380819395999</v>
       </c>
       <c r="S6">
-        <v>0.01953923233885063</v>
+        <v>0.02016982904199183</v>
       </c>
       <c r="T6">
-        <v>0.01953923233885063</v>
+        <v>0.01629535711768309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>14.6546243857008</v>
+        <v>23.95923522136222</v>
       </c>
       <c r="R7">
-        <v>14.6546243857008</v>
+        <v>215.63311699226</v>
       </c>
       <c r="S7">
-        <v>0.03879305277797049</v>
+        <v>0.05265749256093993</v>
       </c>
       <c r="T7">
-        <v>0.03879305277797049</v>
+        <v>0.0638135785198643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>91.44786610452256</v>
+        <v>107.9724298919933</v>
       </c>
       <c r="R8">
-        <v>91.44786610452256</v>
+        <v>971.75186902794</v>
       </c>
       <c r="S8">
-        <v>0.242076617104361</v>
+        <v>0.2373012899324501</v>
       </c>
       <c r="T8">
-        <v>0.242076617104361</v>
+        <v>0.2875762548025737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>10.9687299406329</v>
+        <v>13.34740039717333</v>
       </c>
       <c r="R9">
-        <v>10.9687299406329</v>
+        <v>120.12660357456</v>
       </c>
       <c r="S9">
-        <v>0.02903592124199838</v>
+        <v>0.02933485274585827</v>
       </c>
       <c r="T9">
-        <v>0.02903592124199838</v>
+        <v>0.03554977341353811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>15.45271609895372</v>
+        <v>24.22535244785333</v>
       </c>
       <c r="R10">
-        <v>15.45271609895372</v>
+        <v>218.02817203068</v>
       </c>
       <c r="S10">
-        <v>0.04090572473318559</v>
+        <v>0.05324236372835515</v>
       </c>
       <c r="T10">
-        <v>0.04090572473318559</v>
+        <v>0.06452236126569411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>75.08546038020181</v>
+        <v>91.49154690492665</v>
       </c>
       <c r="R11">
-        <v>75.08546038020181</v>
+        <v>548.94928142956</v>
       </c>
       <c r="S11">
-        <v>0.1987628035167882</v>
+        <v>0.2010796841394818</v>
       </c>
       <c r="T11">
-        <v>0.1987628035167882</v>
+        <v>0.1624537944938472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>1.762863499635686</v>
+        <v>2.697555591356777</v>
       </c>
       <c r="R12">
-        <v>1.762863499635686</v>
+        <v>24.278000322211</v>
       </c>
       <c r="S12">
-        <v>0.004666571792072215</v>
+        <v>0.005928674774975362</v>
       </c>
       <c r="T12">
-        <v>0.004666571792072215</v>
+        <v>0.007184731647329998</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>11.0006303152017</v>
+        <v>12.15654962591766</v>
       </c>
       <c r="R13">
-        <v>11.0006303152017</v>
+        <v>109.408946633259</v>
       </c>
       <c r="S13">
-        <v>0.02912036645749582</v>
+        <v>0.02671760661720576</v>
       </c>
       <c r="T13">
-        <v>0.02912036645749582</v>
+        <v>0.0323780340614736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>1.319472484642476</v>
+        <v>1.502775620290667</v>
       </c>
       <c r="R14">
-        <v>1.319472484642476</v>
+        <v>13.524980582616</v>
       </c>
       <c r="S14">
-        <v>0.003492847335327159</v>
+        <v>0.003302793069774726</v>
       </c>
       <c r="T14">
-        <v>0.003492847335327159</v>
+        <v>0.004002527174058267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>1.858869150386318</v>
+        <v>2.727517566588666</v>
       </c>
       <c r="R15">
-        <v>1.858869150386318</v>
+        <v>24.547658099298</v>
       </c>
       <c r="S15">
-        <v>0.004920713568656177</v>
+        <v>0.005994525060817438</v>
       </c>
       <c r="T15">
-        <v>0.004920713568656177</v>
+        <v>0.007264533061749338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>9.032330953958422</v>
+        <v>10.30097712364433</v>
       </c>
       <c r="R16">
-        <v>9.032330953958422</v>
+        <v>61.80586274186599</v>
       </c>
       <c r="S16">
-        <v>0.02390997422949299</v>
+        <v>0.02263943824780706</v>
       </c>
       <c r="T16">
-        <v>0.02390997422949299</v>
+        <v>0.01829057303478848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>3.084813420462641</v>
+        <v>4.483057126837111</v>
       </c>
       <c r="R17">
-        <v>3.084813420462641</v>
+        <v>40.347514141534</v>
       </c>
       <c r="S17">
-        <v>0.0081659772833868</v>
+        <v>0.009852841508739617</v>
       </c>
       <c r="T17">
-        <v>0.0081659772833868</v>
+        <v>0.01194027753095334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>19.24986933866143</v>
+        <v>20.20292245796067</v>
       </c>
       <c r="R18">
-        <v>19.24986933866143</v>
+        <v>181.826302121646</v>
       </c>
       <c r="S18">
-        <v>0.05095737547203044</v>
+        <v>0.04440188633779042</v>
       </c>
       <c r="T18">
-        <v>0.05095737547203044</v>
+        <v>0.0538089286527946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>2.308928870214552</v>
+        <v>2.497456948122667</v>
       </c>
       <c r="R19">
-        <v>2.308928870214552</v>
+        <v>22.477112533104</v>
       </c>
       <c r="S19">
-        <v>0.006112091116454062</v>
+        <v>0.005488898934043689</v>
       </c>
       <c r="T19">
-        <v>0.006112091116454062</v>
+        <v>0.006651784315590742</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>3.252812542310137</v>
+        <v>4.532850816734666</v>
       </c>
       <c r="R20">
-        <v>3.252812542310137</v>
+        <v>40.795657350612</v>
       </c>
       <c r="S20">
-        <v>0.008610696890587495</v>
+        <v>0.009962277842209247</v>
       </c>
       <c r="T20">
-        <v>0.008610696890587495</v>
+        <v>0.01207289919064799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N21">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O21">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P21">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q21">
-        <v>15.80556619987268</v>
+        <v>17.11915374626733</v>
       </c>
       <c r="R21">
-        <v>15.80556619987268</v>
+        <v>102.714922477604</v>
       </c>
       <c r="S21">
-        <v>0.04183977341484391</v>
+        <v>0.03762439421438287</v>
       </c>
       <c r="T21">
-        <v>0.04183977341484391</v>
+        <v>0.03039703206127485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N22">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O22">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P22">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q22">
-        <v>5.72250594136991</v>
+        <v>8.225651520610667</v>
       </c>
       <c r="R22">
-        <v>5.72250594136991</v>
+        <v>49.353909123664</v>
       </c>
       <c r="S22">
-        <v>0.01514835652986249</v>
+        <v>0.01807829756474229</v>
       </c>
       <c r="T22">
-        <v>0.01514835652986249</v>
+        <v>0.01460559305108142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N23">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P23">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q23">
-        <v>35.70961242918989</v>
+        <v>37.068945394936</v>
       </c>
       <c r="R23">
-        <v>35.70961242918989</v>
+        <v>222.413672369616</v>
       </c>
       <c r="S23">
-        <v>0.09452885609256025</v>
+        <v>0.08146995087035799</v>
       </c>
       <c r="T23">
-        <v>0.09452885609256025</v>
+        <v>0.06582018821422182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N24">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O24">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P24">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q24">
-        <v>4.283195570389377</v>
+        <v>4.582411056064001</v>
       </c>
       <c r="R24">
-        <v>4.283195570389377</v>
+        <v>27.494466336384</v>
       </c>
       <c r="S24">
-        <v>0.01133827981170319</v>
+        <v>0.01007120109913675</v>
       </c>
       <c r="T24">
-        <v>0.01133827981170319</v>
+        <v>0.008136599381817515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N25">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O25">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P25">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q25">
-        <v>6.034153954355098</v>
+        <v>8.317014518992</v>
       </c>
       <c r="R25">
-        <v>6.034153954355098</v>
+        <v>49.902087113952</v>
       </c>
       <c r="S25">
-        <v>0.01597333692497111</v>
+        <v>0.01827909472555153</v>
       </c>
       <c r="T25">
-        <v>0.01597333692497111</v>
+        <v>0.01476781859284438</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N26">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O26">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P26">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q26">
-        <v>29.32023242816485</v>
+        <v>31.410751427096</v>
       </c>
       <c r="R26">
-        <v>29.32023242816485</v>
+        <v>125.643005708384</v>
       </c>
       <c r="S26">
-        <v>0.07761518099078651</v>
+        <v>0.06903439923370813</v>
       </c>
       <c r="T26">
-        <v>0.07761518099078651</v>
+        <v>0.03718227479191665</v>
       </c>
     </row>
   </sheetData>
